--- a/assets/sample_metadata/bacteria_test_metadata_1.xlsx
+++ b/assets/sample_metadata/bacteria_test_metadata_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerowell/Documents/data/01.scripts/tostadas/assets/sample_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666F77A-F27B-BB45-AB43-0B647A7B8540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67FA318-FB25-4376-BD2A-C6987D13AF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D029CB50-4CB9-4BD3-B61F-E5821D8D6205}"/>
+    <workbookView xWindow="17300" yWindow="2740" windowWidth="20790" windowHeight="17800" xr2:uid="{D029CB50-4CB9-4BD3-B61F-E5821D8D6205}"/>
   </bookViews>
   <sheets>
     <sheet name="Diphtheria_Metadata" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Submission info</t>
   </si>
@@ -101,9 +101,6 @@
     <t>mean_coverage</t>
   </si>
   <si>
-    <t>ncbi_sequence_name_sra</t>
-  </si>
-  <si>
     <t>illumina_sequencing_instrument</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Cdiphtheriae</t>
   </si>
   <si>
-    <t>SRA - all</t>
-  </si>
-  <si>
     <t>SRA - Illumina info</t>
   </si>
   <si>
@@ -303,6 +297,9 @@
   </si>
   <si>
     <t>nanopore_library_name</t>
+  </si>
+  <si>
+    <t>ncbi-spuid-sra</t>
   </si>
 </sst>
 </file>
@@ -767,36 +764,36 @@
   <dimension ref="A1:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="53" width="24" customWidth="1"/>
+    <col min="1" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="53" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="3"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -808,24 +805,22 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -837,7 +832,7 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
@@ -850,238 +845,240 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE2" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -1091,40 +1088,38 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AK3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
@@ -1138,116 +1133,116 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F44" s="7"/>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
